--- a/xlsx/图莱里县 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/图莱里县 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>图莱里县 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_图莱里县 (加利福尼亚州)</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -53,9 +53,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96</t>
@@ -83,7 +80,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>金斯縣 (加利福尼亞州)</t>
+    <t>金斯县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>納瓦特爾語</t>
+    <t>纳瓦特尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -113,13 +110,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%B3%A2%E8%96%A9%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬里波薩縣 (加利福尼亞州)</t>
+    <t>马里波萨县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%81%A9%E5%8E%BF</t>
@@ -137,25 +134,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>金斯县 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%94%E7%86%B1%E7%97%85</t>
   </si>
   <si>
-    <t>兔熱病</t>
+    <t>兔热病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美洲杉國家公園</t>
+    <t>美洲杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%9B%BC%E5%B0%87%E8%BB%8D%E6%A8%B9</t>
   </si>
   <si>
-    <t>雪曼將軍樹</t>
+    <t>雪曼将军树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -167,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A2%E7%A9%8D%E6%9C%80%E5%A4%A7%E7%B8%A3%E4%BB%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國面積最大縣份列表</t>
+    <t>美国面积最大县份列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%8E%8B%E5%B3%A1%E8%B0%B7%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -179,103 +173,103 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐裔美國人</t>
+    <t>欧裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%9F%E8%91%97</t>
   </si>
   <si>
-    <t>美國土著</t>
+    <t>美国土著</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80</t>
@@ -293,25 +287,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英國人</t>
+    <t>英国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87%E6%94%B6%E5%85%A5</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E7%B7%9A</t>
   </si>
   <si>
-    <t>貧窮線</t>
+    <t>贫穷线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Geological_Survey</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -377,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -485,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -497,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%B3%A2%E8%90%A8%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>马里波萨县 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E5%A4%9A%E8%A5%BF%E8%AF%BA%E5%8E%BF</t>
   </si>
   <si>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -527,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -539,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -563,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -593,31 +584,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -731,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -815,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -845,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -869,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1019,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E8%8E%B1%E9%87%8C%E5%8E%BF</t>
@@ -1562,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -1588,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -1617,10 +1608,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -1646,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1675,10 +1666,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1704,10 +1695,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1733,10 +1724,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1762,10 +1753,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1791,10 +1782,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1820,10 +1811,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1849,10 +1840,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1878,10 +1869,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1907,10 +1898,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1936,10 +1927,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1965,10 +1956,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1994,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2023,10 +2014,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2052,10 +2043,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2081,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2110,10 +2101,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2139,10 +2130,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2168,10 +2159,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
         <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2197,10 +2188,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2226,10 +2217,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2255,10 +2246,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2284,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2313,10 +2304,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2342,10 +2333,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2371,10 +2362,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2400,10 +2391,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2429,10 +2420,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2458,10 +2449,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2487,10 +2478,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2516,10 +2507,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2545,10 +2536,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -2574,10 +2565,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2603,10 +2594,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2632,10 +2623,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2661,10 +2652,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2690,10 +2681,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2719,10 +2710,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2748,10 +2739,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2806,10 +2797,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2835,10 +2826,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2864,10 +2855,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2893,10 +2884,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2922,10 +2913,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2951,10 +2942,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2980,10 +2971,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3009,10 +3000,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3038,10 +3029,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3067,10 +3058,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3096,10 +3087,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
         <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -3125,10 +3116,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>15</v>
@@ -3154,10 +3145,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3183,10 +3174,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3212,10 +3203,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3241,10 +3232,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3270,10 +3261,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>33</v>
@@ -3299,10 +3290,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3328,10 +3319,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3357,10 +3348,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3386,10 +3377,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3415,10 +3406,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3444,10 +3435,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3473,10 +3464,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3502,10 +3493,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3531,10 +3522,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3560,10 +3551,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
         <v>33</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3589,10 +3580,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3618,10 +3609,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3647,10 +3638,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3676,10 +3667,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
         <v>37</v>
-      </c>
-      <c r="F79" t="s">
-        <v>38</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3705,10 +3696,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3734,10 +3725,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -3763,10 +3754,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3792,10 +3783,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3821,10 +3812,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3850,10 +3841,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3879,10 +3870,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3908,10 +3899,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3937,10 +3928,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3966,10 +3957,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3995,10 +3986,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4024,10 +4015,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4053,10 +4044,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4082,10 +4073,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4111,10 +4102,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4140,10 +4131,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4169,10 +4160,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4198,10 +4189,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4227,10 +4218,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4256,10 +4247,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4285,10 +4276,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4314,10 +4305,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4343,10 +4334,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4372,10 +4363,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4401,10 +4392,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4430,10 +4421,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4459,10 +4450,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4488,10 +4479,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4517,10 +4508,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4546,10 +4537,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4575,10 +4566,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4604,10 +4595,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4633,10 +4624,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4662,10 +4653,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4691,10 +4682,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4720,10 +4711,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4749,10 +4740,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4778,10 +4769,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4807,10 +4798,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4836,10 +4827,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4865,10 +4856,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4894,10 +4885,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -4923,10 +4914,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4952,10 +4943,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4981,10 +4972,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5010,10 +5001,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5039,10 +5030,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5068,10 +5059,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5097,10 +5088,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5126,10 +5117,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5155,10 +5146,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5184,10 +5175,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5213,10 +5204,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5242,10 +5233,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5271,10 +5262,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5300,10 +5291,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5329,10 +5320,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5358,10 +5349,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5387,10 +5378,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5416,10 +5407,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5445,10 +5436,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5474,10 +5465,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5503,10 +5494,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5532,10 +5523,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5561,10 +5552,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5590,10 +5581,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5619,10 +5610,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5648,10 +5639,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5677,10 +5668,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5706,10 +5697,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5735,10 +5726,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5764,10 +5755,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5793,10 +5784,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5822,10 +5813,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5851,10 +5842,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5880,10 +5871,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5909,10 +5900,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5938,10 +5929,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5967,10 +5958,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5996,10 +5987,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6025,10 +6016,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6054,10 +6045,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6083,10 +6074,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6112,10 +6103,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6141,10 +6132,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6170,10 +6161,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6199,10 +6190,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6228,10 +6219,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6257,10 +6248,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6286,10 +6277,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6315,10 +6306,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6344,10 +6335,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6373,10 +6364,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6402,10 +6393,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6431,10 +6422,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6460,10 +6451,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6489,10 +6480,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -6518,10 +6509,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6547,10 +6538,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6576,10 +6567,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>4</v>
@@ -6605,10 +6596,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
